--- a/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestCase/FTC_Bai1.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestCase/FTC_Bai1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATION TECHNOLOGY\LUVINA\Other File\MyDocuments_xx18\LA_PM\04_Output_12_NguyenThiMinhHang\02_BaiTapCuoiKhoaJava\TestCase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="16215" windowHeight="7680"/>
   </bookViews>
@@ -289,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -602,6 +607,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -610,96 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -708,8 +713,44 @@
     <cellStyle name="Normal_Sheet1" xfId="1"/>
     <cellStyle name="標準_Sheet2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -756,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,9 +829,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,6 +864,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -997,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40:J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,17 +1062,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="60">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="37" t="s">
         <v>3</v>
       </c>
@@ -1052,17 +1095,17 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="61" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="38" t="s">
         <v>33</v>
       </c>
@@ -1094,17 +1137,17 @@
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1131,18 +1174,18 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
-    </row>
-    <row r="7" spans="1:15" s="73" customFormat="1" ht="34.5" customHeight="1">
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" s="44" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="33">
         <v>1</v>
       </c>
@@ -1152,22 +1195,22 @@
         <v>33</v>
       </c>
       <c r="E7" s="40"/>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="72"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="24"/>
     </row>
-    <row r="8" spans="1:15" s="73" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:15" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="33">
         <v>2</v>
       </c>
@@ -1177,19 +1220,19 @@
         <v>33</v>
       </c>
       <c r="E8" s="40"/>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" s="21" customFormat="1" ht="21.75" customHeight="1">
@@ -1198,11 +1241,11 @@
       <c r="C9" s="17"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="18"/>
       <c r="L9" s="19"/>
       <c r="M9" s="17"/>
@@ -1219,18 +1262,18 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-    </row>
-    <row r="11" spans="1:15" s="73" customFormat="1" ht="30">
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
+    </row>
+    <row r="11" spans="1:15" s="44" customFormat="1" ht="30">
       <c r="A11" s="33">
         <v>3</v>
       </c>
@@ -1242,19 +1285,19 @@
       <c r="E11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1">
@@ -1263,11 +1306,11 @@
       <c r="C12" s="17"/>
       <c r="D12" s="15"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="18"/>
       <c r="L12" s="19"/>
       <c r="M12" s="17"/>
@@ -1284,16 +1327,16 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="1:15" s="32" customFormat="1" ht="48" customHeight="1">
       <c r="A14" s="26">
@@ -1307,15 +1350,15 @@
       <c r="E14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="29"/>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
@@ -1334,17 +1377,17 @@
       <c r="E15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
@@ -1363,17 +1406,17 @@
       <c r="E16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="29"/>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
@@ -1392,17 +1435,17 @@
       <c r="E17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="29"/>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
@@ -1421,17 +1464,17 @@
       <c r="E18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="50"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="29"/>
       <c r="L18" s="30"/>
       <c r="M18" s="27"/>
@@ -1450,17 +1493,17 @@
       <c r="E19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="27">
         <v>-1</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="50"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
       <c r="M19" s="27"/>
@@ -1479,17 +1522,17 @@
       <c r="E20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="27">
         <v>0</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="50"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
       <c r="M20" s="27"/>
@@ -1508,17 +1551,17 @@
       <c r="E21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="27">
         <v>2.35</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
       <c r="M21" s="27"/>
@@ -1537,17 +1580,17 @@
       <c r="E22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="50"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
       <c r="M22" s="27"/>
@@ -1566,17 +1609,17 @@
       <c r="E23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="50"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="27">
         <v>99999</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="50"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
       <c r="M23" s="27"/>
@@ -1595,17 +1638,17 @@
       <c r="E24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="34">
         <v>10</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="50"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
       <c r="M24" s="27"/>
@@ -1624,15 +1667,15 @@
       <c r="E25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="50"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="50"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
       <c r="M25" s="27"/>
@@ -1651,17 +1694,17 @@
       <c r="E26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="50"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="50"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
       <c r="M26" s="27"/>
@@ -1680,17 +1723,17 @@
       <c r="E27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="29"/>
       <c r="L27" s="30"/>
       <c r="M27" s="27"/>
@@ -1709,17 +1752,17 @@
       <c r="E28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="47"/>
       <c r="H28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="29"/>
       <c r="L28" s="30"/>
       <c r="M28" s="27"/>
@@ -1738,17 +1781,17 @@
       <c r="E29" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="50"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="29"/>
       <c r="L29" s="30"/>
       <c r="M29" s="27"/>
@@ -1767,17 +1810,17 @@
       <c r="E30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="27">
         <v>-1</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="50"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
       <c r="M30" s="27"/>
@@ -1796,17 +1839,17 @@
       <c r="E31" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="27">
         <v>0</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="50"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="29"/>
       <c r="L31" s="30"/>
       <c r="M31" s="27"/>
@@ -1825,17 +1868,17 @@
       <c r="E32" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="50"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="27">
         <v>2.35</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="I32" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="50"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
       <c r="M32" s="27"/>
@@ -1854,17 +1897,17 @@
       <c r="E33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="27">
         <v>99999</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="50"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
       <c r="M33" s="27"/>
@@ -1883,17 +1926,17 @@
       <c r="E34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="50"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="49" t="s">
+      <c r="I34" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="50"/>
+      <c r="J34" s="47"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
       <c r="M34" s="27"/>
@@ -1912,17 +1955,17 @@
       <c r="E35" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="55"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="34">
         <v>5</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="50"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
       <c r="M35" s="27"/>
@@ -1935,11 +1978,11 @@
       <c r="C36" s="17"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="54"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="18"/>
       <c r="L36" s="19"/>
       <c r="M36" s="17"/>
@@ -1956,16 +1999,16 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="70"/>
     </row>
     <row r="38" spans="1:15" s="32" customFormat="1" ht="54.75" customHeight="1">
       <c r="A38" s="26">
@@ -1977,17 +2020,17 @@
         <v>33</v>
       </c>
       <c r="E38" s="27"/>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="55"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="49" t="s">
+      <c r="I38" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="50"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
       <c r="M38" s="27"/>
@@ -2004,17 +2047,17 @@
         <v>33</v>
       </c>
       <c r="E39" s="27"/>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="J39" s="50"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
       <c r="M39" s="27"/>
@@ -2031,17 +2074,17 @@
         <v>33</v>
       </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="55"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="50"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
       <c r="M40" s="27"/>
@@ -2058,16 +2101,16 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="48"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="70"/>
     </row>
     <row r="42" spans="1:15" s="21" customFormat="1">
       <c r="A42" s="33"/>
@@ -2075,11 +2118,11 @@
       <c r="C42" s="17"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="18"/>
       <c r="L42" s="19"/>
       <c r="M42" s="17"/>
@@ -2088,6 +2131,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F17:G17"/>
@@ -2104,70 +2211,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2175,7 +2218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2187,7 +2230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestCase/FTC_Bai1.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/02_BaiTapCuoiKhoaJava/TestCase/FTC_Bai1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATION TECHNOLOGY\LUVINA\Other File\MyDocuments_xx18\LA_PM\04_Output_12_NguyenThiMinhHang\02_BaiTapCuoiKhoaJava\TestCase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="16215" windowHeight="7680"/>
   </bookViews>
@@ -294,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -607,6 +602,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -618,93 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -713,44 +708,8 @@
     <cellStyle name="Normal_Sheet1" xfId="1"/>
     <cellStyle name="標準_Sheet2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -797,7 +756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,10 +788,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,7 +822,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1040,11 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,17 +1019,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="60">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="37" t="s">
         <v>3</v>
       </c>
@@ -1095,17 +1052,17 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="57" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="38" t="s">
         <v>33</v>
       </c>
@@ -1137,17 +1094,17 @@
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1174,18 +1131,18 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="73"/>
-    </row>
-    <row r="7" spans="1:15" s="44" customFormat="1" ht="34.5" customHeight="1">
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" s="73" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="33">
         <v>1</v>
       </c>
@@ -1195,22 +1152,22 @@
         <v>33</v>
       </c>
       <c r="E7" s="40"/>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="72"/>
       <c r="O7" s="24"/>
     </row>
-    <row r="8" spans="1:15" s="44" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:15" s="73" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="33">
         <v>2</v>
       </c>
@@ -1220,19 +1177,19 @@
         <v>33</v>
       </c>
       <c r="E8" s="40"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="72"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" s="21" customFormat="1" ht="21.75" customHeight="1">
@@ -1241,11 +1198,11 @@
       <c r="C9" s="17"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="18"/>
       <c r="L9" s="19"/>
       <c r="M9" s="17"/>
@@ -1262,18 +1219,18 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
-    </row>
-    <row r="11" spans="1:15" s="44" customFormat="1" ht="30">
+      <c r="F10" s="56"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" s="73" customFormat="1" ht="30">
       <c r="A11" s="33">
         <v>3</v>
       </c>
@@ -1285,19 +1242,19 @@
       <c r="E11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="43"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1">
@@ -1306,11 +1263,11 @@
       <c r="C12" s="17"/>
       <c r="D12" s="15"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="18"/>
       <c r="L12" s="19"/>
       <c r="M12" s="17"/>
@@ -1327,16 +1284,16 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" s="32" customFormat="1" ht="48" customHeight="1">
       <c r="A14" s="26">
@@ -1350,15 +1307,15 @@
       <c r="E14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="47"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="29"/>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
@@ -1377,17 +1334,17 @@
       <c r="E15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="47"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
@@ -1406,17 +1363,17 @@
       <c r="E16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="29"/>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
@@ -1435,17 +1392,17 @@
       <c r="E17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="29"/>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
@@ -1464,17 +1421,17 @@
       <c r="E18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="29"/>
       <c r="L18" s="30"/>
       <c r="M18" s="27"/>
@@ -1493,17 +1450,17 @@
       <c r="E19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="27">
         <v>-1</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="29"/>
       <c r="L19" s="30"/>
       <c r="M19" s="27"/>
@@ -1522,17 +1479,17 @@
       <c r="E20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="27">
         <v>0</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
       <c r="M20" s="27"/>
@@ -1551,17 +1508,17 @@
       <c r="E21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="27">
         <v>2.35</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="47"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="29"/>
       <c r="L21" s="30"/>
       <c r="M21" s="27"/>
@@ -1580,17 +1537,17 @@
       <c r="E22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="47"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
       <c r="M22" s="27"/>
@@ -1609,17 +1566,17 @@
       <c r="E23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="27">
         <v>99999</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
       <c r="M23" s="27"/>
@@ -1638,17 +1595,17 @@
       <c r="E24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="34">
         <v>10</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="47"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="29"/>
       <c r="L24" s="30"/>
       <c r="M24" s="27"/>
@@ -1667,15 +1624,15 @@
       <c r="E25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="47"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
       <c r="M25" s="27"/>
@@ -1694,17 +1651,17 @@
       <c r="E26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="47"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
       <c r="M26" s="27"/>
@@ -1723,17 +1680,17 @@
       <c r="E27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="47"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="47"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="29"/>
       <c r="L27" s="30"/>
       <c r="M27" s="27"/>
@@ -1752,17 +1709,17 @@
       <c r="E28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="47"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="47"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="29"/>
       <c r="L28" s="30"/>
       <c r="M28" s="27"/>
@@ -1781,17 +1738,17 @@
       <c r="E29" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="47"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="47"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="29"/>
       <c r="L29" s="30"/>
       <c r="M29" s="27"/>
@@ -1810,17 +1767,17 @@
       <c r="E30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="27">
         <v>-1</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="47"/>
+      <c r="J30" s="50"/>
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
       <c r="M30" s="27"/>
@@ -1839,17 +1796,17 @@
       <c r="E31" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="47"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="27">
         <v>0</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="47"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="29"/>
       <c r="L31" s="30"/>
       <c r="M31" s="27"/>
@@ -1868,17 +1825,17 @@
       <c r="E32" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="27">
         <v>2.35</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="47"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
       <c r="M32" s="27"/>
@@ -1897,17 +1854,17 @@
       <c r="E33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="27">
         <v>99999</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="47"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
       <c r="M33" s="27"/>
@@ -1926,17 +1883,17 @@
       <c r="E34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="47"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="47"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
       <c r="M34" s="27"/>
@@ -1955,17 +1912,17 @@
       <c r="E35" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="46"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="34">
         <v>5</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="47"/>
+      <c r="J35" s="50"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
       <c r="M35" s="27"/>
@@ -1978,11 +1935,11 @@
       <c r="C36" s="17"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="55"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="53"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="18"/>
       <c r="L36" s="19"/>
       <c r="M36" s="17"/>
@@ -1999,16 +1956,16 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="70"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="48"/>
     </row>
     <row r="38" spans="1:15" s="32" customFormat="1" ht="54.75" customHeight="1">
       <c r="A38" s="26">
@@ -2020,17 +1977,17 @@
         <v>33</v>
       </c>
       <c r="E38" s="27"/>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="46"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="47"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
       <c r="M38" s="27"/>
@@ -2047,17 +2004,17 @@
         <v>33</v>
       </c>
       <c r="E39" s="27"/>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J39" s="47"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
       <c r="M39" s="27"/>
@@ -2074,17 +2031,17 @@
         <v>33</v>
       </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="47"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
       <c r="M40" s="27"/>
@@ -2101,16 +2058,16 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="70"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="48"/>
     </row>
     <row r="42" spans="1:15" s="21" customFormat="1">
       <c r="A42" s="33"/>
@@ -2118,11 +2075,11 @@
       <c r="C42" s="17"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="55"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="18"/>
       <c r="L42" s="19"/>
       <c r="M42" s="17"/>
@@ -2131,38 +2088,33 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="A2:E2"/>
@@ -2179,38 +2131,43 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2218,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2230,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
